--- a/CLEAN/DecemberSales2023_clean.xlsx
+++ b/CLEAN/DecemberSales2023_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0003552</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0003553</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0003554</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -742,7 +742,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0003555</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -812,7 +812,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0003556</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -882,7 +882,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0003557</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0003558</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1022,7 +1022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0003559</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0003560</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1166,7 +1166,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0003561</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1236,7 +1236,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0003562</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0003563</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1376,7 +1376,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0003564</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1446,7 +1446,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0003565</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1516,7 +1516,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0003566</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1586,7 +1586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0003567</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1656,7 +1656,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0003568</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1730,7 +1730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0003569</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1800,7 +1800,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0003570</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1870,7 +1870,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0003571</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1940,7 +1940,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0003572</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2010,7 +2010,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0003573</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2080,7 +2080,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0003574</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2150,7 +2150,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0003575</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2220,7 +2220,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0003576</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2294,7 +2294,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0003577</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2364,7 +2364,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0003578</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2434,7 +2434,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0003579</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0003580</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0003581</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2648,7 +2648,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0003582</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2718,7 +2718,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0003583</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2788,7 +2788,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0003584</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2858,7 +2858,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0003585</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2928,7 +2928,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0003586</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2998,7 +2998,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0003587</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0003588</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3138,7 +3138,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0003589</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3208,7 +3208,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0003590</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3278,7 +3278,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0003591</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3352,7 +3352,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0003592</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3426,7 +3426,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0003593</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3496,7 +3496,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0003594</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3566,7 +3566,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0003595</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3640,7 +3640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0003596</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3710,7 +3710,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0003597</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3780,7 +3780,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0003598</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3850,7 +3850,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0003599</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3920,7 +3920,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0003600</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3994,7 +3994,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0003601</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4064,7 +4064,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0003602</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4134,7 +4134,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0003603</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4204,7 +4204,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0003604</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4274,7 +4274,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0003605</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4348,7 +4348,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0003606</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4418,7 +4418,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0003607</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4488,7 +4488,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0003608</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4562,7 +4562,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0003609</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4632,7 +4632,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0003610</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4702,7 +4702,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0003611</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4772,7 +4772,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0003612</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4842,7 +4842,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0003613</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4916,7 +4916,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0003614</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4986,7 +4986,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0003615</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5060,7 +5060,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0003616</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5134,7 +5134,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0003617</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5204,7 +5204,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0003618</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5274,7 +5274,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0003619</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5348,7 +5348,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0003620</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5418,7 +5418,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0003621</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5492,7 +5492,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0003622</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5562,7 +5562,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0003623</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5632,7 +5632,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0003624</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5702,7 +5702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0003625</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5772,7 +5772,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0003626</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5842,7 +5842,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0003627</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5912,7 +5912,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0003628</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5986,7 +5986,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0003629</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6056,7 +6056,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0003630</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6126,7 +6126,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0003631</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6196,7 +6196,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0003632</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6270,7 +6270,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0003633</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6340,7 +6340,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0003634</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6414,7 +6414,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0003635</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6484,7 +6484,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0003636</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6558,7 +6558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0003637</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6628,7 +6628,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0003638</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6698,7 +6698,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0003639</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6768,7 +6768,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0003640</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6838,7 +6838,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6908,7 +6908,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0003642</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6982,7 +6982,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0003643</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7056,7 +7056,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0003644</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7126,7 +7126,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0003645</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7200,7 +7200,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0003646</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7274,7 +7274,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0003647</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7344,7 +7344,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0003648</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7414,7 +7414,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0003649</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7484,7 +7484,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0003650</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7558,7 +7558,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0003651</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7628,7 +7628,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0003652</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7698,7 +7698,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0003653</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7768,7 +7768,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0003654</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7838,7 +7838,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0003655</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7908,7 +7908,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0003656</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7978,7 +7978,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -8048,7 +8048,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0003658</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8118,7 +8118,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0003659</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8188,7 +8188,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0003660</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8258,7 +8258,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0003661</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8328,7 +8328,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0003662</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8398,7 +8398,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0003663</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8468,7 +8468,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0003664</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8538,7 +8538,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0003665</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8608,7 +8608,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0003666</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8678,7 +8678,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0003667</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8748,7 +8748,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0003668</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8818,7 +8818,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0003669</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8892,7 +8892,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0003670</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8962,7 +8962,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0003671</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -9036,7 +9036,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0003672</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9106,7 +9106,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0003673</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9180,7 +9180,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0003674</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9254,7 +9254,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0003675</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9324,7 +9324,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0003676</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9394,7 +9394,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0003677</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9464,7 +9464,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0003678</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9534,7 +9534,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0003679</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9604,7 +9604,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0003680</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9674,7 +9674,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0003681</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9744,7 +9744,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0003682</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9814,7 +9814,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0003683</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9884,7 +9884,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0003684</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9954,7 +9954,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0003685</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -10024,7 +10024,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0003686</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10094,7 +10094,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0003687</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10168,7 +10168,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0003688</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10242,7 +10242,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0003689</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10312,7 +10312,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0003690</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10382,7 +10382,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0003691</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10456,7 +10456,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0003692</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10526,7 +10526,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0003693</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10600,7 +10600,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0003694</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10670,7 +10670,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0003695</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10740,7 +10740,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0003696</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10810,7 +10810,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0003697</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10880,7 +10880,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0003698</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10950,7 +10950,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0003699</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -11024,7 +11024,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0003700</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11094,7 +11094,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0003701</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11164,7 +11164,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0003702</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11234,7 +11234,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11308,7 +11308,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0003704</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11378,7 +11378,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0003705</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11452,7 +11452,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0003706</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11522,7 +11522,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0003707</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11592,7 +11592,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0003708</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11662,7 +11662,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0003709</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11732,7 +11732,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0003710</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11802,7 +11802,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0003711</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11872,7 +11872,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0003712</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11942,7 +11942,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0003713</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -12012,7 +12012,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0003714</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12082,7 +12082,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0003715</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12152,7 +12152,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0003716</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12222,7 +12222,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0003717</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12292,7 +12292,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0003718</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12362,7 +12362,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0003719</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12432,7 +12432,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0003720</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12502,7 +12502,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0003721</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12572,7 +12572,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0003722</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12642,7 +12642,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0003723</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12712,7 +12712,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0003724</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12782,7 +12782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0003725</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12852,7 +12852,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0003726</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12922,7 +12922,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0003727</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12992,7 +12992,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0003728</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13062,7 +13062,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0003729</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13132,7 +13132,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0003730</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13202,7 +13202,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0003731</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13272,7 +13272,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0003732</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13346,7 +13346,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0003733</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13416,7 +13416,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0003734</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13490,7 +13490,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0003735</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13560,7 +13560,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0003736</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13630,7 +13630,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0003737</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13700,7 +13700,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0003738</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13770,7 +13770,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0003739</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13840,7 +13840,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0003740</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13910,7 +13910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0003741</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13980,7 +13980,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0003742</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14050,7 +14050,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0003743</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14120,7 +14120,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0003744</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14190,7 +14190,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0003745</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14260,7 +14260,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0003746</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14330,7 +14330,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0003747</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14404,7 +14404,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0003748</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14474,7 +14474,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14548,7 +14548,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0003750</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14618,7 +14618,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0003751</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14688,7 +14688,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0003752</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14758,7 +14758,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0003753</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14828,7 +14828,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0003754</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14898,7 +14898,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0003755</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14968,7 +14968,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0003756</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -15038,7 +15038,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0003757</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15108,7 +15108,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0003758</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15178,7 +15178,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0003759</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15248,7 +15248,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0003760</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15318,7 +15318,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0003761</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15388,7 +15388,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0003762</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15458,7 +15458,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0003763</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15528,7 +15528,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0003764</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15598,7 +15598,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0003765</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15668,7 +15668,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0003766</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15738,7 +15738,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0003767</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15808,7 +15808,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0003768</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15882,7 +15882,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0003769</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15952,7 +15952,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0003770</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -16026,7 +16026,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0003771</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16096,7 +16096,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0003772</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16166,7 +16166,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0003773</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16240,7 +16240,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0003774</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16310,7 +16310,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0003775</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16380,7 +16380,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0003776</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16450,7 +16450,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0003777</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16524,7 +16524,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0003778</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16594,7 +16594,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0003779</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16664,7 +16664,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0003780</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16734,7 +16734,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0003781</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16808,7 +16808,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0003782</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16878,7 +16878,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0003783</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16948,7 +16948,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0003784</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -17018,7 +17018,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0003785</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17088,7 +17088,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0003786</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17158,7 +17158,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0003787</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17228,7 +17228,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0003788</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17298,7 +17298,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0003789</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17372,7 +17372,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0003790</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17446,7 +17446,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0003791</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17520,7 +17520,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0003792</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17590,7 +17590,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0003793</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17660,7 +17660,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0003794</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17730,7 +17730,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0003795</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17800,7 +17800,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0003796</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17870,7 +17870,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0003797</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17940,7 +17940,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0003798</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -18010,7 +18010,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0003799</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18084,7 +18084,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0003800</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18154,7 +18154,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0003801</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18224,7 +18224,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0003802</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18298,7 +18298,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0003803</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18368,7 +18368,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0003804</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18442,7 +18442,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0003805</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18512,7 +18512,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0003806</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18582,7 +18582,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0003807</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18652,7 +18652,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0003808</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18722,7 +18722,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0003809</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18792,7 +18792,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0003810</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18862,7 +18862,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0003811</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18932,7 +18932,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0003812</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -19006,7 +19006,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0003813</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19080,7 +19080,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0003814</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19154,7 +19154,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0003815</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19224,7 +19224,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0003816</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19298,7 +19298,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0003817</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19372,7 +19372,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0003818</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19442,7 +19442,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0003819</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19512,7 +19512,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0003820</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19582,7 +19582,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0003821</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19652,7 +19652,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0003822</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19722,7 +19722,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0003823</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19792,7 +19792,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0003824</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19862,7 +19862,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0003825</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19932,7 +19932,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0003826</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -20002,7 +20002,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0003827</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -20076,7 +20076,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0003828</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20146,7 +20146,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0003829</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20216,7 +20216,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0003830</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20286,7 +20286,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0003831</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20356,7 +20356,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0003832</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20430,7 +20430,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0003833</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20504,7 +20504,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0003834</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20574,7 +20574,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0003835</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20644,7 +20644,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0003836</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20714,7 +20714,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0003837</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20784,7 +20784,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0003838</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20854,7 +20854,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0003839</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20924,7 +20924,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0003840</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20994,7 +20994,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0003841</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -21064,7 +21064,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0003842</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21134,7 +21134,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0003843</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21204,7 +21204,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0003844</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21274,7 +21274,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0003845</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21344,7 +21344,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0003846</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21414,7 +21414,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0003847</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21484,7 +21484,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0003848</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21554,7 +21554,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0003849</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21624,7 +21624,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0003850</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21698,7 +21698,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0003851</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21772,7 +21772,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0003852</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21842,7 +21842,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0003853</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21912,7 +21912,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0003854</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21982,7 +21982,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0003855</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -22052,7 +22052,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0003856</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22122,7 +22122,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0003857</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22192,7 +22192,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0003858</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22262,7 +22262,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0003859</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22332,7 +22332,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0003860</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22402,7 +22402,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0003861</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22472,7 +22472,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0003862</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22546,7 +22546,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0003863</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22616,7 +22616,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0003864</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22686,7 +22686,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0003865</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22756,7 +22756,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0003866</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22826,7 +22826,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0003867</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22896,7 +22896,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0003868</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22970,7 +22970,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0003869</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -23040,7 +23040,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0003870</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23110,7 +23110,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0003871</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23184,7 +23184,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0003872</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23254,7 +23254,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0003873</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23324,7 +23324,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0003874</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23394,7 +23394,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0003875</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23464,7 +23464,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0003876</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23534,7 +23534,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0003877</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23604,7 +23604,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0003878</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23678,7 +23678,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0003879</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23748,7 +23748,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0003880</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23818,7 +23818,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0003881</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23888,7 +23888,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0003882</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23958,7 +23958,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0003883</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -24028,7 +24028,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24098,7 +24098,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0003885</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24168,7 +24168,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0003886</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24238,7 +24238,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0003887</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24308,7 +24308,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0003888</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24378,7 +24378,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0003889</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24448,7 +24448,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0003890</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24522,7 +24522,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0003891</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24596,7 +24596,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0003892</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24666,7 +24666,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0003893</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24736,7 +24736,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0003894</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24806,7 +24806,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24876,7 +24876,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0003896</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24946,7 +24946,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0003897</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -25016,7 +25016,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0003898</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25090,7 +25090,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0003899</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25164,7 +25164,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0003900</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25234,7 +25234,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0003901</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25304,7 +25304,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0003902</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25374,7 +25374,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0003903</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25444,7 +25444,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0003904</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25514,7 +25514,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0003905</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25584,7 +25584,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0003906</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25654,7 +25654,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0003907</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25724,7 +25724,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0003908</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25798,7 +25798,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0003909</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25868,7 +25868,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0003910</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25938,7 +25938,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0003911</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -26008,7 +26008,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0003912</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -26078,7 +26078,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0003913</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26148,7 +26148,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0003914</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26218,7 +26218,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0003915</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26288,7 +26288,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0003916</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26358,7 +26358,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0003917</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26432,7 +26432,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0003918</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26502,7 +26502,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0003919</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26576,7 +26576,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0003920</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26646,7 +26646,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0003921</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26716,7 +26716,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0003922</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26786,7 +26786,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0003923</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26856,7 +26856,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0003924</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26930,7 +26930,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0003925</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -27000,7 +27000,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0003926</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -27070,7 +27070,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0003927</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27140,7 +27140,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0003928</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27210,7 +27210,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0003929</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27284,7 +27284,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0003930</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27354,7 +27354,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0003931</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27424,7 +27424,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0003932</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27498,7 +27498,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0003933</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27572,7 +27572,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0003934</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27646,7 +27646,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0003935</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27720,7 +27720,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0003936</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27790,7 +27790,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0003937</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27860,7 +27860,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0003938</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27934,7 +27934,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0003939</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -28004,7 +28004,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0003940</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -28074,7 +28074,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0003941</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28144,7 +28144,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0003942</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28214,7 +28214,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0003943</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28284,7 +28284,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0003944</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28354,7 +28354,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0003945</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28424,7 +28424,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0003946</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28494,7 +28494,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0003947</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28564,7 +28564,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0003948</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28634,7 +28634,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0003949</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28704,7 +28704,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0003950</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28774,7 +28774,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0003951</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28844,7 +28844,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0003952</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28914,7 +28914,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0003953</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28984,7 +28984,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0003954</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -29058,7 +29058,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0003955</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29128,7 +29128,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0003956</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29202,7 +29202,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0003957</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29272,7 +29272,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0003958</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29346,7 +29346,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0003959</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29416,7 +29416,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0003960</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29490,7 +29490,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0003961</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29564,7 +29564,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0003962</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29634,7 +29634,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0003963</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29704,7 +29704,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0003964</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29774,7 +29774,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0003965</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29848,7 +29848,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0003966</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29918,7 +29918,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0003967</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29988,7 +29988,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0003968</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -30058,7 +30058,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0003969</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30128,7 +30128,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0003970</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30202,7 +30202,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0003971</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30272,7 +30272,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0003972</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30346,7 +30346,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0003973</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30416,7 +30416,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003974</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30486,7 +30486,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0003975</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30556,7 +30556,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0003976</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30626,7 +30626,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0003977</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30696,7 +30696,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0003978</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30766,7 +30766,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0003979</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30836,7 +30836,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0003980</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30906,7 +30906,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0003981</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30976,7 +30976,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -31046,7 +31046,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0003983</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -31116,7 +31116,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0003984</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31186,7 +31186,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0003985</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31256,7 +31256,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0003986</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31330,7 +31330,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0003987</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31400,7 +31400,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0003988</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31470,7 +31470,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0003989</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31540,7 +31540,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0003990</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31614,7 +31614,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0003991</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31688,7 +31688,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0003992</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31758,7 +31758,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0003993</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31832,7 +31832,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0003994</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31902,7 +31902,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0003995</t>
         </is>
       </c>
       <c r="B445" t="n">
